--- a/Week08/Week8.xlsx
+++ b/Week08/Week8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/Classroom/2022 2nd Semester/IntroStats/GitHub/IntroStats/Week08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohkawano/Library/CloudStorage/GoogleDrive-ykawano@reitaku-u.ac.jp/My Drive/Classroom/2023 1st Semester/23-1-Reitaku-Stats/Week08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DBC38F-EDC1-0A42-8AEF-CD46D26D7A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D29F8-D560-644C-8662-8546AF11D9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="-23280" windowWidth="35840" windowHeight="21900" xr2:uid="{CF8CDEA4-952D-FB49-B63D-E62EF39DBDBE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{CF8CDEA4-952D-FB49-B63D-E62EF39DBDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="1 クラス身長" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>ハム太郎</t>
     <phoneticPr fontId="1"/>
@@ -230,90 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Makoto Kishino</t>
-  </si>
-  <si>
-    <t>Kuuta Uchida</t>
-  </si>
-  <si>
-    <t>Yurika Arata</t>
-  </si>
-  <si>
-    <t>Sota Kobori</t>
-  </si>
-  <si>
-    <t>Miria Kobayashi</t>
-  </si>
-  <si>
-    <t>Nanako Murakushi</t>
-  </si>
-  <si>
-    <t>Towa Tanahashi</t>
-  </si>
-  <si>
-    <t>Nao Kobayashi</t>
-  </si>
-  <si>
-    <t>Mako Sasaki</t>
-  </si>
-  <si>
-    <t>Yusuke Aono</t>
-  </si>
-  <si>
-    <t>Ayumi Yano</t>
-  </si>
-  <si>
-    <t>Jo Yamaguchi</t>
-  </si>
-  <si>
-    <t>Izumi Toda</t>
-  </si>
-  <si>
-    <t>Kensuke Wakabayashi</t>
-  </si>
-  <si>
-    <t>Kakan You</t>
-  </si>
-  <si>
-    <t>Ran Komaba</t>
-  </si>
-  <si>
-    <t>Masakazu Tamagawa</t>
-  </si>
-  <si>
-    <t>Miyu Takeyama</t>
-  </si>
-  <si>
-    <t>Tsuchiya Sakura</t>
-  </si>
-  <si>
-    <t>Suzuna Hoshino</t>
-  </si>
-  <si>
-    <t>Female</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Male</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Misuzu Tanaka</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yui Kikuchi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rina Arai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tomoki Wada</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -325,46 +233,246 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>② 偏差</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均(x̅・μ)→</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ヘイキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❷</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 偏差</t>
+    </r>
     <rPh sb="2" eb="4">
       <t>ヘンサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③ 偏差二乗</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 偏差二乗</t>
+    </r>
     <rPh sb="2" eb="6">
       <t>ヘンサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④ 合計→</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 合計→</t>
+    </r>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑤ Nは？→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥ 分散（④/⑤）→</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❺</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nは？→</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❻</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 分散（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❺</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）→</t>
+    </r>
     <rPh sb="2" eb="4">
       <t>ブンサn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>① 平均(x̅・μ)→</t>
-    <rPh sb="2" eb="4">
-      <t>ヘイキn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦ 標準偏差σ（分散の平方根）→</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>❼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 標準偏差σ（分散の平方根）→</t>
+    </r>
     <rPh sb="2" eb="6">
       <t>ヒョウジュn</t>
     </rPh>
@@ -373,12 +481,123 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Kaito Fukuzawa</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yuta Shibasaki</t>
+  </si>
+  <si>
+    <t>Kaito Toda</t>
+  </si>
+  <si>
+    <t>Yushin Ito</t>
+  </si>
+  <si>
+    <t>Naoya Sakata</t>
+  </si>
+  <si>
+    <t>Shunnsuke Yamamuro</t>
+  </si>
+  <si>
+    <t>Honoka Kanai</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Rikuto Shiina</t>
+  </si>
+  <si>
+    <t>Masaya Iwasaki</t>
+  </si>
+  <si>
+    <t>Sana Katou</t>
+  </si>
+  <si>
+    <t>Haruki Makishima</t>
+  </si>
+  <si>
+    <t>Juno Zeniya</t>
+  </si>
+  <si>
+    <t>Shota Okada</t>
+  </si>
+  <si>
+    <t>Koki Watanabe</t>
+  </si>
+  <si>
+    <t>Yuto Ishiwatari</t>
+  </si>
+  <si>
+    <t>Keigo Yoshida</t>
+  </si>
+  <si>
+    <t>Kotaro Ogawa</t>
+  </si>
+  <si>
+    <t>Ai Teshima</t>
+  </si>
+  <si>
+    <t>Miyu Otsuki</t>
+  </si>
+  <si>
+    <t>Yuki Takeda</t>
+  </si>
+  <si>
+    <t>Masanobu Ushiku</t>
+  </si>
+  <si>
+    <t>Kairi Senuma</t>
+  </si>
+  <si>
+    <t>Teruya Kaneko</t>
+  </si>
+  <si>
+    <t>Shohei Sakuyama</t>
+  </si>
+  <si>
+    <t>Yamato Huuga</t>
+  </si>
+  <si>
+    <t>Takahiro Yosioka</t>
+  </si>
+  <si>
+    <t>Rento Sugiyama</t>
+  </si>
+  <si>
+    <t>Ryota Kato</t>
+  </si>
+  <si>
+    <t>Kouta Monma</t>
+  </si>
+  <si>
+    <t>Koutarou Andou</t>
+  </si>
+  <si>
+    <t>Taiga Kihara</t>
+  </si>
+  <si>
+    <t>Kazuto Gunji</t>
+  </si>
+  <si>
+    <t>LIU ANQI</t>
+  </si>
+  <si>
+    <t>Yuki Tambo</t>
+  </si>
+  <si>
+    <t>Junya Sutou</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,6 +691,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -493,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -514,15 +741,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -563,15 +781,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -643,6 +852,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,79 +933,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,16 +981,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,22 +1046,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>46403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425D80DA-AF7D-26B9-E656-A5FAE0863870}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9650F54-27AC-5274-6F91-B7FFEBE9DAEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8940800" y="584200"/>
-          <a:ext cx="5003800" cy="1993900"/>
+          <a:off x="9131300" y="101601"/>
+          <a:ext cx="5232400" cy="2738802"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,7 +1091,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1119,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D404FE-BFDA-8F4D-AF2D-C6EF78E0FC0C}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1139,362 +1407,506 @@
     <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:9" ht="25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="27">
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5">
+        <v>165</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5">
+        <v>169</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <v>183</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5">
+        <v>173</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>170</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5">
+        <v>164</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5">
+        <v>180</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="2:9" ht="25" thickBot="1">
+      <c r="B11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5">
+        <v>171</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="2:9" ht="27">
+      <c r="B12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5">
+        <v>163</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="26"/>
+      <c r="H12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5">
+        <v>163</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="26"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="2:9" ht="27">
+      <c r="B14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5">
+        <v>155</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="26"/>
+      <c r="H14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5">
+        <v>172</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" ht="28" thickBot="1">
+      <c r="B16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5">
+        <v>163</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5">
+        <v>165</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5">
+        <v>170</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="C19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5">
+        <v>175</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="C20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5">
+        <v>152</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="10">
-        <v>158</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="10">
-        <v>165</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="10">
-        <v>178</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5">
+        <v>150.5</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5">
+        <v>177</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5">
+        <v>180</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5">
+        <v>170</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5">
+        <v>162</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5">
+        <v>173</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5">
+        <v>174</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="5">
+        <v>167</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5">
+        <v>170.5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5">
+        <v>175</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="5">
+        <v>171</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5">
+        <v>170</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="5">
+        <v>182</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="5">
+        <v>172</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5">
         <v>166</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="10">
-        <v>160</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="10">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10">
-        <v>175</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10">
-        <v>161</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="25" thickBot="1">
-      <c r="B11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10">
-        <v>174</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="10">
-        <v>157</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="10">
-        <v>167</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10">
-        <v>160</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="2:9" ht="25" thickBot="1">
-      <c r="B16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="10">
-        <v>165</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="10">
-        <v>168</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="10">
-        <v>175</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="10">
-        <v>148</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="10">
-        <v>165</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="10">
-        <v>171</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="11" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="5">
+        <v>170</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="2:6" ht="25" thickBot="1">
+      <c r="B37" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="30">
+        <v>170</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="2:6" ht="27">
+      <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="10">
-        <v>159</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="10">
-        <v>154</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="10">
-        <v>165</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="10">
-        <v>163</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="14">
-        <v>170</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="C27" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E26">
-    <sortCondition ref="E3:E26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E37">
+    <sortCondition ref="E3:E37"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC0C76A-A32F-B144-AFD1-FEFB1DDB83F5}">
   <dimension ref="A2:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1519,298 +1931,298 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="9">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="9">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="9">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="9">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="9">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="9">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="9">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="9">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="9">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="9">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="9">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="9">
         <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="9">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="9">
         <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="9">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="9">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="9">
         <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="9">
         <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="9">
         <v>173</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="9">
         <v>174</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="9">
         <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="9">
         <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="9">
         <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="9">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="9">
         <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="9">
         <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="9">
         <v>209</v>
       </c>
     </row>
@@ -1818,15 +2230,15 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="11">
         <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="12" t="s">
         <v>35</v>
       </c>
     </row>
